--- a/results/I3_N5_M3_T15_C100_DepCentral_s2_P6_res.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s2_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793.9478541869133</v>
+        <v>612.1078541869114</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.828177710068261</v>
+        <v>0.9656355420136523</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.828177710068261</v>
+        <v>0.9656355420136523</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>396.9400000000019</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>364.8999999999999</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,50 +590,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -977,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.79170115929614</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>14.79170115929614</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,62 +996,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.59500000000058</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>75.8750000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>74.39500000000058</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>75.07500000000059</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>83.23000000000059</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>104.4450000000006</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>101.6750000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.7150000000006</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>104.5350000000006</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>134.5599999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>140.1899999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>129.1399999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>139.4649999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>138.8949999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>93.39000000000037</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>93.47500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>91.28000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>91.81500000000037</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>93.57500000000036</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>134.5599999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>140.1899999999997</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>129.1399999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>139.4649999999997</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>138.8949999999997</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1528,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>104.4450000000006</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1539,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>101.6750000000006</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -1550,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>103.7150000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -1561,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5350000000006</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1572,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>101.85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42">
@@ -1583,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>87.59500000000058</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>75.8750000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>74.39500000000058</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>75.07500000000059</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>83.23000000000059</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>34.55999999999972</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>40.18999999999971</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.13999999999973</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>39.46499999999972</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>38.89499999999973</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1729,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4.445000000000577</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1740,7 +1640,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.675000000000577</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1751,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>3.71500000000059</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1762,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.53500000000059</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1773,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.85</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1875,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.015</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>11.29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +1984,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>14.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +2006,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2080,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2191,7 +2091,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2202,7 +2102,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2213,7 +2113,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2224,7 +2124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
